--- a/Data/Processing/2024-02-02/TECHM.xlsx
+++ b/Data/Processing/2024-02-02/TECHM.xlsx
@@ -3269,7 +3269,7 @@
         <v>941.63</v>
       </c>
       <c r="D55">
-        <v>932.42</v>
+        <v>932.4299999999999</v>
       </c>
       <c r="E55">
         <v>935.8099999999999</v>
@@ -5166,7 +5166,7 @@
         <v>1027.2</v>
       </c>
       <c r="C93">
-        <v>1043.49</v>
+        <v>1043.5</v>
       </c>
       <c r="D93">
         <v>1022.13</v>
